--- a/medicine/Enfance/Gérard_Coulon/Gérard_Coulon.xlsx
+++ b/medicine/Enfance/Gérard_Coulon/Gérard_Coulon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Coulon</t>
+          <t>Gérard_Coulon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Coulon est un archéologue, historien et écrivain français né le 27 août 1945 à Mézières-en-Brenne (Indre). Il est surtout connu pour ses ouvrages sur la civilisation gallo-romaine et pour ses livres sur l'Antiquité destinés aux enfants[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Coulon est un archéologue, historien et écrivain français né le 27 août 1945 à Mézières-en-Brenne (Indre). Il est surtout connu pour ses ouvrages sur la civilisation gallo-romaine et pour ses livres sur l'Antiquité destinés aux enfants.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Coulon</t>
+          <t>Gérard_Coulon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Titulaire d’un DEA d’Archéologie des périodes classiques (Paris I) il a été professeur de français et d’histoire-géographie en collège. Il quitte l’enseignement en 1984 pour se consacrer à l’archéologie et au patrimoine.
-Fondateur et premier conservateur du musée d’Argentomagus à Saint-Marcel, Indre, de 1990 à 1999, il devient ensuite conservateur en chef et dirige à Tours le Service départemental des monuments, musées et maisons d’écrivain de la Touraine. Parallèlement, il est chargé de travaux dirigés sur la Gaule romaine à l’École du Louvre[2] pour la préparation à l’Institut national du patrimoine. Il a également été missionné pour la mise en valeur scientifique et touristique des sites archéologiques d’Aubigné-Racan, dans la Sarthe, ainsi que de Sanxay et Naintré, dans le département de la Vienne.
-Retraité en 2004, il donne depuis des conférences et des cours dans plusieurs universités populaires[3].
+Fondateur et premier conservateur du musée d’Argentomagus à Saint-Marcel, Indre, de 1990 à 1999, il devient ensuite conservateur en chef et dirige à Tours le Service départemental des monuments, musées et maisons d’écrivain de la Touraine. Parallèlement, il est chargé de travaux dirigés sur la Gaule romaine à l’École du Louvre pour la préparation à l’Institut national du patrimoine. Il a également été missionné pour la mise en valeur scientifique et touristique des sites archéologiques d’Aubigné-Racan, dans la Sarthe, ainsi que de Sanxay et Naintré, dans le département de la Vienne.
+Retraité en 2004, il donne depuis des conférences et des cours dans plusieurs universités populaires.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Coulon</t>
+          <t>Gérard_Coulon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sur les civilisations romaine et gallo-romaine
-Les Gallo-Romains, Paris, A. Colin, 1985 (2e édition, 2 tomes, 1990).
+          <t>Sur les civilisations romaine et gallo-romaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Gallo-Romains, Paris, A. Colin, 1985 (2e édition, 2 tomes, 1990).
 Carte archéologique de la Gaule. L’Indre, 36, (en collaboration avec Jean Holmgren et Michel Provost), Paris, 1992.
 L’Enfant en Gaule romaine, Paris, Errance, 1994 (2e édition 2004).
 Argentomagus, du site gaulois à la ville gallo-romaine (Dir.), Paris, Errance, 1996.
@@ -559,15 +578,121 @@
 Les stèles funéraires gallo-romaines de Saint-Ambroix (Cher). Un atelier de sculpture dans la cité des Bituriges, en coll. avec Simone Deyts et Claude-Olivier Darré, éditions du musée de Châteauroux et Lancosme Multimédia, 2012.
 Le Trésor de Châteaumeillant (Cher), en collaboration avec Sophie Krausz, Tours, éditions Archéa, 2016.
 Le Berry gallo-romain, coll. "Tout comprendre", La Crèche, éditions La Geste berrichonne, 2017.
-Guide des voies romaines de l'Indre, Coll. "Berry en poche", Châteauroux, La Bouinotte éditions, 2017.
-* Le Génie civil de l'armée romaine, Arles, Actes Sud-Errance, 2018 (en collaboration avec Jean-Claude Golvin ). Traduction en italien sous le titre Il genio civile dell'ecercito romano, LEG edizioni, Rome, Coll. Biblioteca Universale di Storia - Studi, 2019. Traduction en allemand sous le titre Die Architekten des Imperiums. Wie das Heer ein Weltreich erbaute, Wbg Philippe Von Zabern, 2020. Traduction en espagnol sous le titre La Ingeniera del Ejèrcito Romano, Desperta Ferro ediciones, Madrid, 2021.
-Les Gallo-Romains, Mémo Gisserot, collection Histoire, Paris, éditions Jean-Paul Gisserot, 2019.
-Le Génie maritime romain, Actes Sud/Errance, 2020 (en collaboration avec Jean-Claude Golvin). Traduction en allemand sous le titre Häfen für die Ewigkeit Maritime Ingenieurskunst der Römer, Wbg Philipp von Zabern, 2021. Traduction en italien sous le titre Il Genio marittimo di Roma, LEG Edizioni, Rome, coll. Bibioleca Universale di Storia-Studi, 2021.
-Histoire
-Signé Vrain Lucas ! la véritable histoire d'un incroyable faussaire, Arles, Errance, 2015. (2ème édition avec pour nouveau titre Vrain Lucas. Histoire d’un incroyable faussaire, 2022).
-Histoire mondiale du bonheur sous la direction de François Durpaire, préface de Alain Corbin, Le Cherche-Midi, Paris, 2020. En collaboration avec de nombreux auteurs. Chapitre rédigé : Hic habitat felicitas. Le bonheur pour les Romains.
-Ouvrages jeunesse
-La vie des enfants au temps des Gallo-Romains, Paris, éditions du Sorbier, 2001 (réédition de La Martinière jeunesse, 2006). Traduction en néerlandais en 2005 sous le titre Hoen leefden Kinderen zo bij de Gallo-Romeinen, éd. Davidsfonds/Infodok, Biblion, Leuven. Traduction en allemand en 2006 sous le titre Das Leben der Kinder im alten Rom, éd. Knesebeck, München.
+Guide des voies romaines de l'Indre, Coll. "Berry en poche", Châteauroux, La Bouinotte éditions, 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gérard_Coulon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Coulon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sur les civilisations romaine et gallo-romaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>* Le Génie civil de l'armée romaine, Arles, Actes Sud-Errance, 2018 (en collaboration avec Jean-Claude Golvin ). Traduction en italien sous le titre Il genio civile dell'ecercito romano, LEG edizioni, Rome, Coll. Biblioteca Universale di Storia - Studi, 2019. Traduction en allemand sous le titre Die Architekten des Imperiums. Wie das Heer ein Weltreich erbaute, Wbg Philippe Von Zabern, 2020. Traduction en espagnol sous le titre La Ingeniera del Ejèrcito Romano, Desperta Ferro ediciones, Madrid, 2021.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Gallo-Romains, Mémo Gisserot, collection Histoire, Paris, éditions Jean-Paul Gisserot, 2019.
+Le Génie maritime romain, Actes Sud/Errance, 2020 (en collaboration avec Jean-Claude Golvin). Traduction en allemand sous le titre Häfen für die Ewigkeit Maritime Ingenieurskunst der Römer, Wbg Philipp von Zabern, 2021. Traduction en italien sous le titre Il Genio marittimo di Roma, LEG Edizioni, Rome, coll. Bibioleca Universale di Storia-Studi, 2021.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gérard_Coulon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Coulon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Signé Vrain Lucas ! la véritable histoire d'un incroyable faussaire, Arles, Errance, 2015. (2ème édition avec pour nouveau titre Vrain Lucas. Histoire d’un incroyable faussaire, 2022).
+Histoire mondiale du bonheur sous la direction de François Durpaire, préface de Alain Corbin, Le Cherche-Midi, Paris, 2020. En collaboration avec de nombreux auteurs. Chapitre rédigé : Hic habitat felicitas. Le bonheur pour les Romains.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gérard_Coulon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Coulon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La vie des enfants au temps des Gallo-Romains, Paris, éditions du Sorbier, 2001 (réédition de La Martinière jeunesse, 2006). Traduction en néerlandais en 2005 sous le titre Hoen leefden Kinderen zo bij de Gallo-Romeinen, éd. Davidsfonds/Infodok, Biblion, Leuven. Traduction en allemand en 2006 sous le titre Das Leben der Kinder im alten Rom, éd. Knesebeck, München.
 La vie des enfants à l’époque de Pompéi, Paris, éditions du Sorbier, 2002. Traduction en allemand en 2007 sous le titre Das Leben der Kinder in Pompeji, éd. Knesebeck, München.
 Le Dico des Gallo-Romains, Paris, éditions de La Martinière jeunesse, 2003 (2e édition, 2008).
 Le Tour de Gaule raconté par deux enfants, Paris, éditions de La Martinière jeunesse, 2004
@@ -582,9 +707,43 @@
 Les Gaulois, « Coll. Voir 6-9 ans », Paris, Fleurus éditions, 2012.
 Les Romains, « Coll. Voir 6-9 ans », Paris, Fleurus éditions, 2014
 Les Gallo-Romains racontés aux enfants, Coll. "Monde raconté", Paris, éditions de La Martinière jeunesse, 2016.
-Carilla, Lucius, Quieta et les autres... Ils avaient dix ans au temps des Romains, illustrations de Philippe Archer, éditions du Cabardès, 2020.
-Ouvrages régionaux sur le Berry
-La Brenne antique, Tours, Gibert-Clarey, 1973
+Carilla, Lucius, Quieta et les autres... Ils avaient dix ans au temps des Romains, illustrations de Philippe Archer, éditions du Cabardès, 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gérard_Coulon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Coulon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages régionaux sur le Berry</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Brenne antique, Tours, Gibert-Clarey, 1973
 Chroniques du pays de Brenne, Tours, Gibert-Clarey, 1978
 Une vie paysanne en Berry de 1882 à nos jours, Châteauroux, Badel, 1979 (Réédition en 1980, 1984, 1990 et 2000 aux éditions Christian Pirot sous le titre Chemin de terre .
 Histoire de Châteauroux et Déols, (en collaboration), Roanne, Horvath, 1979
@@ -607,72 +766,113 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>G%C3%A9rard_Coulon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Coulon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gérard_Coulon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Coulon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décorations
- Officier de l'ordre des Palmes académiques (1994)
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de l'ordre des Palmes académiques (1994)
  Officier de l'ordre des Arts et des Lettres (1996)
- Chevalier de l'ordre national du Mérite (2001).
-Récompenses
-Prix Guy Vanhor 1972 pour La Brenne antique.[4]
+ Chevalier de l'ordre national du Mérite (2001).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gérard_Coulon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Coulon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prix Guy Vanhor 1972 pour La Brenne antique.
 Prix littéraire de la ville de Bourges 1978 pour Chroniques du pays de Brenne.
 Prix des Lettres paysannes remis par l’Académicien Jean Guitton pour Une vie paysanne en Berry, 1979.
-Prix Guy Vanhor 1990 pour les auteurs de L’Indre. Le Bas-Berry de la préhistoire à nos jours[4].
-Prix Saint-Jean Bourdin 2007 (château d’Ainay-le-Vieil)[5].
+Prix Guy Vanhor 1990 pour les auteurs de L’Indre. Le Bas-Berry de la préhistoire à nos jours.
+Prix Saint-Jean Bourdin 2007 (château d’Ainay-le-Vieil).
 Depuis sa création en 2016, Gérard Coulon est membre du jury du Grand Prix du Livre d'archéologie, décerné chaque année lors des Rencontres d'Archéologie de la Narbonnaise à Narbonne.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>G%C3%A9rard_Coulon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Coulon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gérard_Coulon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Coulon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Télévision</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Il participe comme intervenant à des films documentaires sur l'Antiquité romaine. Notamment :
 "La Vie au temps des gladiateurs", réalisateur Benoît Bernard (2018), France 4.
